--- a/data/trans_camb/P43-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P43-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P43-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P43-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,23</t>
         </is>
       </c>
     </row>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,52; 3,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,29; 2,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 8,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,52; 3,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,29; 2,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 8,74</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,86%</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,11; 81,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,5; 63,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,82; 175,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,11; 81,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,5; 63,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,82; 175,35</t>
         </is>
       </c>
     </row>
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,81</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,78; 3,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,35; 4,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,18; 6,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,78; 3,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,35; 4,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,18; 6,72</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,83%</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,59; 36,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,77; 38,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,46; 56,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,59; 36,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,77; 38,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,46; 56,8</t>
         </is>
       </c>
     </row>
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,95; 5,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,02; 5,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,78; 4,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,95; 5,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,02; 5,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,78; 4,56</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,92%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,87%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,2; 16,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,58; 16,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,94; 14,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,2; 16,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,58; 16,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,94; 14,34</t>
         </is>
       </c>
     </row>
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 10,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,51; 9,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,44; 5,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 10,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,51; 9,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,44; 5,9</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,1%</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; 19,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,28; 16,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,94; 10,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; 19,08</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,28; 16,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,94; 10,17</t>
         </is>
       </c>
     </row>
@@ -1511,32 +1511,32 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,89</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,7</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,89</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,7</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,07</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,6; 21,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,15; 19,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 9,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,6; 21,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,15; 19,76</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 9,36</t>
         </is>
       </c>
     </row>
@@ -1617,32 +1617,32 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,01%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,01%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,37%</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,32; 29,15</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,88; 27,6</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 13,12</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,32; 29,15</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,88; 27,6</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 13,12</t>
         </is>
       </c>
     </row>
@@ -1727,32 +1727,32 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,34</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,14</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>33,06</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,34</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,14</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>33,06</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,58; 27,11</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,32; 31,29</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,74; 41,36</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,58; 27,11</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,32; 31,29</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,74; 41,36</t>
         </is>
       </c>
     </row>
@@ -1833,32 +1833,32 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,01%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,19%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,07%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,01%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,19%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,07%</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,53; 62,65</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,1; 72,06</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,3; 92,65</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,53; 62,65</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,1; 72,06</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,3; 92,65</t>
         </is>
       </c>
     </row>
@@ -1943,32 +1943,32 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,02</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,49</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,02</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,49</t>
         </is>
       </c>
     </row>
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,91; 11,76</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,69; 14,52</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,53; 22,62</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,91; 11,76</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,69; 14,52</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,53; 22,62</t>
         </is>
       </c>
     </row>
@@ -2049,32 +2049,32 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,72%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,5%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,72%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,5%</t>
         </is>
       </c>
     </row>
@@ -2102,32 +2102,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,55; 31,96</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,93; 39,65</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,11; 60,18</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,55; 31,96</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,93; 39,65</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,11; 60,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P43-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P43-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>2,33</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 8,74</t>
+          <t>-1,51; 8,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 8,74</t>
+          <t>-1,51; 8,86</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>38,86%</t>
+          <t>40,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>38,86%</t>
+          <t>40,52%</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,82; 175,35</t>
+          <t>-25,1; 178,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-23,82; 175,35</t>
+          <t>-25,1; 178,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 6,72</t>
+          <t>-6,51; 5,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 6,72</t>
+          <t>-6,51; 5,63</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>0,61%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 56,8</t>
+          <t>-43,76; 45,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 56,8</t>
+          <t>-43,76; 45,65</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 4,56</t>
+          <t>-5,42; 4,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 4,56</t>
+          <t>-5,42; 4,91</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,87%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,87%</t>
+          <t>0,1%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 14,34</t>
+          <t>-14,74; 15,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 14,34</t>
+          <t>-14,74; 15,3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>2,74</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 5,9</t>
+          <t>-3,76; 11,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 5,9</t>
+          <t>-3,76; 11,4</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>4,43%</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 10,17</t>
+          <t>-5,88; 18,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 10,17</t>
+          <t>-5,88; 18,69</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>4,69</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 9,36</t>
+          <t>-0,56; 9,93</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 9,36</t>
+          <t>-0,56; 9,93</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>6,19%</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 13,12</t>
+          <t>-0,74; 13,82</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 13,12</t>
+          <t>-0,74; 13,82</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1727,32 +1727,32 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>22,34</t>
+          <t>21,88</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>26,14</t>
+          <t>22,58</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>33,06</t>
+          <t>27,03</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>22,34</t>
+          <t>21,88</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>26,14</t>
+          <t>22,58</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>33,06</t>
+          <t>27,03</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>16,58; 27,11</t>
+          <t>15,17; 27,88</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>20,32; 31,29</t>
+          <t>16,31; 28,56</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>27,74; 41,36</t>
+          <t>19,49; 38,33</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>16,58; 27,11</t>
+          <t>15,17; 27,88</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>20,32; 31,29</t>
+          <t>16,31; 28,56</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>27,74; 41,36</t>
+          <t>19,49; 38,33</t>
         </is>
       </c>
     </row>
@@ -1833,32 +1833,32 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>48,01%</t>
+          <t>34,49%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>56,19%</t>
+          <t>35,59%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>71,07%</t>
+          <t>42,62%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>48,01%</t>
+          <t>34,49%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>56,19%</t>
+          <t>35,59%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>71,07%</t>
+          <t>42,62%</t>
         </is>
       </c>
     </row>
@@ -1886,39 +1886,39 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>33,53; 62,65</t>
+          <t>22,31; 46,7</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>41,1; 72,06</t>
+          <t>24,25; 48,43</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>55,3; 92,65</t>
+          <t>29,85; 65,14</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>33,53; 62,65</t>
+          <t>22,31; 46,7</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>41,1; 72,06</t>
+          <t>24,25; 48,43</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>55,3; 92,65</t>
+          <t>29,85; 65,14</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1943,32 +1943,32 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>9,24</t>
+          <t>24,75</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>12,02</t>
+          <t>30,92</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>16,49</t>
+          <t>41,34</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>9,24</t>
+          <t>24,75</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>12,02</t>
+          <t>30,92</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>16,49</t>
+          <t>41,34</t>
         </is>
       </c>
     </row>
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6,91; 11,76</t>
+          <t>17,01; 31,44</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>9,69; 14,52</t>
+          <t>22,87; 38,73</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>13,53; 22,62</t>
+          <t>34,5; 47,14</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,91; 11,76</t>
+          <t>17,01; 31,44</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>9,69; 14,52</t>
+          <t>22,87; 38,73</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>13,53; 22,62</t>
+          <t>34,5; 47,14</t>
         </is>
       </c>
     </row>
@@ -2049,32 +2049,32 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>24,37%</t>
+          <t>85,21%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>106,45%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>43,5%</t>
+          <t>142,31%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>24,37%</t>
+          <t>85,21%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>106,45%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>43,5%</t>
+          <t>142,31%</t>
         </is>
       </c>
     </row>
@@ -2102,44 +2102,261 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
+          <t>51,15; 127,22</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>69,86; 161,85</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>100,42; 192,3</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>51,15; 127,22</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>69,86; 161,85</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>100,42; 192,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>9,24</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>12,02</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>18,02</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>9,24</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>12,02</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>18,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>6,91; 11,76</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>9,69; 14,52</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>13,1; 28,7</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>6,91; 11,76</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>9,69; 14,52</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>13,1; 28,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>24,37%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>31,72%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>47,53%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>24,37%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>31,72%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>47,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
           <t>17,55; 31,96</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>24,93; 39,65</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>35,11; 60,18</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>33,96; 75,73</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>17,55; 31,96</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>24,93; 39,65</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>35,11; 60,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>33,96; 75,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P43-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P43-Edad-trans_camb.xlsx
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 3,7</t>
+          <t>-2,61; 3,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 2,81</t>
+          <t>-3,38; 3,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 8,86</t>
+          <t>-2,04; 7,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 3,7</t>
+          <t>-2,61; 3,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 2,81</t>
+          <t>-3,38; 3,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 8,86</t>
+          <t>-2,04; 7,55</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,11; 81,49</t>
+          <t>-39,96; 84,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,5; 63,99</t>
+          <t>-46,85; 70,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,1; 178,66</t>
+          <t>-34,59; 165,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,11; 81,49</t>
+          <t>-39,96; 84,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,5; 63,99</t>
+          <t>-46,85; 70,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-25,1; 178,66</t>
+          <t>-34,59; 165,12</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 3,92</t>
+          <t>-4,0; 3,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 4,44</t>
+          <t>-3,72; 4,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 5,63</t>
+          <t>-6,31; 5,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 3,92</t>
+          <t>-4,0; 3,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 4,44</t>
+          <t>-3,72; 4,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 5,63</t>
+          <t>-6,31; 5,62</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,59; 36,28</t>
+          <t>-26,42; 33,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,77; 38,52</t>
+          <t>-24,99; 39,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,76; 45,65</t>
+          <t>-44,37; 46,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,59; 36,28</t>
+          <t>-26,42; 33,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,77; 38,52</t>
+          <t>-24,99; 39,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,76; 45,65</t>
+          <t>-44,37; 46,85</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 5,08</t>
+          <t>-6,21; 4,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 5,21</t>
+          <t>-4,88; 5,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 4,91</t>
+          <t>-5,59; 5,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 5,08</t>
+          <t>-6,21; 4,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 5,21</t>
+          <t>-4,88; 5,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 4,91</t>
+          <t>-5,59; 5,27</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,2; 16,1</t>
+          <t>-16,89; 13,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 16,48</t>
+          <t>-13,33; 19,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 15,3</t>
+          <t>-15,87; 17,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,2; 16,1</t>
+          <t>-16,89; 13,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 16,48</t>
+          <t>-13,33; 19,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 15,3</t>
+          <t>-15,87; 17,02</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 10,97</t>
+          <t>-1,5; 10,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 9,87</t>
+          <t>-1,76; 10,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 11,4</t>
+          <t>-3,05; 11,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 10,97</t>
+          <t>-1,5; 10,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 9,87</t>
+          <t>-1,76; 10,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 11,4</t>
+          <t>-3,05; 11,29</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 19,08</t>
+          <t>-2,27; 17,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 16,96</t>
+          <t>-2,7; 17,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 18,69</t>
+          <t>-5,03; 19,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 19,08</t>
+          <t>-2,27; 17,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 16,96</t>
+          <t>-2,7; 17,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 18,69</t>
+          <t>-5,03; 19,19</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,6; 21,07</t>
+          <t>11,29; 21,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,15; 19,76</t>
+          <t>9,65; 19,92</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 9,93</t>
+          <t>-0,57; 9,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,6; 21,07</t>
+          <t>11,29; 21,19</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,15; 19,76</t>
+          <t>9,65; 19,92</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 9,93</t>
+          <t>-0,57; 9,97</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>13,32; 29,15</t>
+          <t>14,66; 29,64</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>11,88; 27,6</t>
+          <t>12,43; 27,77</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 13,82</t>
+          <t>-0,8; 13,79</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>13,32; 29,15</t>
+          <t>14,66; 29,64</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>11,88; 27,6</t>
+          <t>12,43; 27,77</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 13,82</t>
+          <t>-0,8; 13,79</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>15,17; 27,88</t>
+          <t>15,01; 27,86</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>16,31; 28,56</t>
+          <t>16,73; 28,83</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>19,49; 38,33</t>
+          <t>19,1; 37,56</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>15,17; 27,88</t>
+          <t>15,01; 27,86</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>16,31; 28,56</t>
+          <t>16,73; 28,83</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>19,49; 38,33</t>
+          <t>19,1; 37,56</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>22,31; 46,7</t>
+          <t>22,61; 47,74</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>24,25; 48,43</t>
+          <t>24,3; 48,44</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>29,85; 65,14</t>
+          <t>29,03; 65,84</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>22,31; 46,7</t>
+          <t>22,61; 47,74</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>24,25; 48,43</t>
+          <t>24,3; 48,44</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>29,85; 65,14</t>
+          <t>29,03; 65,84</t>
         </is>
       </c>
     </row>
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>17,01; 31,44</t>
+          <t>17,57; 32,75</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>22,87; 38,73</t>
+          <t>23,4; 39,55</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>34,5; 47,14</t>
+          <t>35,32; 47,34</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>17,01; 31,44</t>
+          <t>17,57; 32,75</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>22,87; 38,73</t>
+          <t>23,4; 39,55</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>34,5; 47,14</t>
+          <t>35,32; 47,34</t>
         </is>
       </c>
     </row>
@@ -2102,32 +2102,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>51,15; 127,22</t>
+          <t>54,59; 131,92</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>69,86; 161,85</t>
+          <t>72,58; 160,72</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>100,42; 192,3</t>
+          <t>106,04; 196,52</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>51,15; 127,22</t>
+          <t>54,59; 131,92</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>69,86; 161,85</t>
+          <t>72,58; 160,72</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>100,42; 192,3</t>
+          <t>106,04; 196,52</t>
         </is>
       </c>
     </row>
@@ -2212,32 +2212,32 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>6,91; 11,76</t>
+          <t>6,75; 11,59</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>9,69; 14,52</t>
+          <t>9,4; 14,29</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>13,1; 28,7</t>
+          <t>13,12; 28,66</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>6,91; 11,76</t>
+          <t>6,75; 11,59</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>9,69; 14,52</t>
+          <t>9,4; 14,29</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>13,1; 28,7</t>
+          <t>13,12; 28,66</t>
         </is>
       </c>
     </row>
@@ -2318,32 +2318,32 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>17,55; 31,96</t>
+          <t>17,24; 31,67</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>24,93; 39,65</t>
+          <t>23,98; 39,03</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>33,96; 75,73</t>
+          <t>34,13; 77,23</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>17,55; 31,96</t>
+          <t>17,24; 31,67</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>24,93; 39,65</t>
+          <t>23,98; 39,03</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>33,96; 75,73</t>
+          <t>34,13; 77,23</t>
         </is>
       </c>
     </row>
